--- a/ExcelTemp/Test.xlsx
+++ b/ExcelTemp/Test.xlsx
@@ -2688,7 +2688,7 @@
     <row r="2" ht="22.5" customHeight="1" s="13" customFormat="1">
       <c r="A2" s="9"/>
       <c r="B2" s="9">
-        <v>43515.3395328704</v>
+        <v>43515.3973579398</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
